--- a/Assets/Cards/Player Cards/Minister of Science.xlsx
+++ b/Assets/Cards/Player Cards/Minister of Science.xlsx
@@ -1,94 +1,161 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\keremataman\GitHub\kardashev-scale\Assets\Cards\Player Cards\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19432125-BA0C-49F2-8935-9842CCBAA555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="0" windowWidth="27480" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19200" windowHeight="7480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Tier</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Subtype</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>Science</t>
-  </si>
-  <si>
-    <t>Tier</t>
-  </si>
-  <si>
-    <t>Draw 3 Tier 3 Researches</t>
-  </si>
-  <si>
-    <t>Star Wars</t>
   </si>
   <si>
     <t>Nations cannot build nukes anymore.
 Remove all nukes from all Foreign Nations, then place 3 counters on this card. At the beginning of each phase, remove 1 counter from this card. When 3 counters are removed from this card, remove all of your nukes</t>
   </si>
   <si>
+    <t>MoD</t>
+  </si>
+  <si>
+    <t>Star Wars</t>
+  </si>
+  <si>
     <t>Players may play an additional card on their turn</t>
   </si>
   <si>
+    <t>Utility</t>
+  </si>
+  <si>
     <t>Players may roll an additional die when rolling a die</t>
   </si>
   <si>
-    <t>&lt;shuffle this into minister of X's deck&gt;</t>
-  </si>
-  <si>
-    <t>Draw 5 Tier 1 Researches</t>
-  </si>
-  <si>
-    <t>Draw 4 Tier 2 Researches</t>
+    <t>The top card of all Foreign Nations' decks are revealed</t>
+  </si>
+  <si>
+    <t>MoFA</t>
+  </si>
+  <si>
+    <t>Put this i front of MoC after researching. Whenever MoC gains Credit, they gain that many Credits one more time. This effect does not stack with itself</t>
+  </si>
+  <si>
+    <t>MoC</t>
+  </si>
+  <si>
+    <t>Once researched, this becomes a basic card for the MoS
+Look at the top card of any deck. You may remove it from the game</t>
+  </si>
+  <si>
+    <t>MoS</t>
+  </si>
+  <si>
+    <t>Deep Predictive AI</t>
+  </si>
+  <si>
+    <t>Your units get +1 to their damage</t>
+  </si>
+  <si>
+    <t>If you are ahead in KS against a Foreign Nation, add the difference between KS to the Intellegence checks and bonus to hit of your troops whenever they are conflicting with that Foreign Nation</t>
+  </si>
+  <si>
+    <t>When doing a diplomacy check against a Nation, if you have higher KS, add the KS difference to the check</t>
+  </si>
+  <si>
+    <t>Give this card to MoFA after researching it. This card can be played for the following effect:
+You may negate any negative effects of cards played by Foreign Nations</t>
+  </si>
+  <si>
+    <t>At the end of your turn, gain 1 extra Credit per each tile you control</t>
+  </si>
+  <si>
+    <t>MoC's cards that do not have an "X" cost are free</t>
+  </si>
+  <si>
+    <t>After researching successfully, you may do another research.</t>
+  </si>
+  <si>
+    <t>Draw a card after doing a successful research</t>
+  </si>
+  <si>
+    <t>Give Credits equal to the number of tiles owned to each player</t>
+  </si>
+  <si>
+    <t>Increase the hand size of each player by 1</t>
+  </si>
+  <si>
+    <t>Players may look at their top card whenever they want</t>
+  </si>
+  <si>
+    <t>MoS Gains 1 Credit whenever a MoS card is resolved</t>
+  </si>
+  <si>
+    <t>This research requires no payment or research checks to be completed</t>
+  </si>
+  <si>
+    <t>MoD Gains 1 Credit whenever a MoD card is resolved</t>
+  </si>
+  <si>
+    <t>Give this to MoFA after researched. 
+If you have the highest military power, you may take Credits from each Foreign Nation equal to the military power difference between you and each of those Foreign Nations</t>
+  </si>
+  <si>
+    <t>MoFA Gains 1 Credit whenever a MoFA card is resolved</t>
+  </si>
+  <si>
+    <t>Conducting Agreements gives 1 Credit to any minister that spent money on it</t>
+  </si>
+  <si>
+    <t>The first time your Nation adds influence to a tile, gain 1 soft power token</t>
+  </si>
+  <si>
+    <t>MoC Gains 1 Credit whenever a MoC card is resolved</t>
+  </si>
+  <si>
+    <t>MoC gains Credits two times the amount of tiles you control</t>
+  </si>
+  <si>
+    <t>Place this in front of MoC after it is researched. MoC gains 1 Credit at the end of the Phase</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* \-??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -97,19 +164,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -117,51 +521,331 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -210,7 +894,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -245,7 +929,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -419,148 +1103,392 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="100.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.3636363636364" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.5454545454545" customWidth="1"/>
+    <col min="6" max="6" width="27.2818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    </row>
+    <row r="2" ht="42.75" spans="1:7">
+      <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:6">
+      <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="28.5" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" ht="42.75" spans="1:6">
+      <c r="A7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="7"/>
+      <c r="D8">
         <v>2</v>
       </c>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7">
-        <v>3</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7" t="s">
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8">
+        <v>2</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7">
-        <v>3</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" ht="28.5" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" ht="42.75" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="7">
-        <v>2</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="9">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="9">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="9">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="9">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="9">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5">
+      <c r="D24" s="9">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" ht="57" spans="1:5">
+      <c r="A25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="9">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="9">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="9">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="9">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="9">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="9">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="9">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>